--- a/src/test/resources/org/bbreak/excella/reports/tag/BlockColRepeatParamParserTest.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/BlockColRepeatParamParserTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="8" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,15 @@
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="24" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="136">
   <si>
     <t>$BC[]{BC1,fromCell=1:0,toCell=3:2}</t>
     <phoneticPr fontId="2"/>
@@ -538,6 +540,14 @@
   </si>
   <si>
     <t>$BC[]{BC1,fromCell=1:0,toCell=5:3}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BC[]{BC1,fromCell=1:0,toCell=3:2,minRepeatNum=2}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BC[]{BC1,fromCell=1:0,toCell=3:2,minRepeatNum=3}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -790,13 +800,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1916,7 +1926,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2154,7 +2164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2222,7 +2232,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="C10" s="15"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2234,7 +2244,7 @@
     <row r="11" spans="1:10">
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="20"/>
@@ -2299,7 +2309,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2356,7 +2366,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2389,7 +2399,7 @@
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="2"/>
@@ -2397,7 +2407,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2"/>
-      <c r="C5" s="25"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
@@ -2413,7 +2423,195 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3038,9 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -3133,7 +3329,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
